--- a/statistical_test_result/statistical_test_results_2024-06-13_23414_.xlsx
+++ b/statistical_test_result/statistical_test_results_2024-06-13_23414_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>p_value</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>significance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -467,6 +472,11 @@
       <c r="D2" t="n">
         <v>1.226102773138143e-07</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -485,6 +495,11 @@
       <c r="D3" t="n">
         <v>0.001082430058317126</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -499,6 +514,11 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Not Significant</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -517,6 +537,11 @@
       <c r="D5" t="n">
         <v>1.263220502977825e-07</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -534,6 +559,11 @@
       </c>
       <c r="D6" t="n">
         <v>0.0005741112473610094</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Significant</t>
+        </is>
       </c>
     </row>
   </sheetData>
